--- a/test.xlsx
+++ b/test.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wt32/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BC3156-26A2-C244-B915-D59FB4453456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383AF1F2-B615-F24D-B6CB-1DC4C616FC99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="4240" windowWidth="27840" windowHeight="16940" xr2:uid="{2EEAB44F-2B2B-C547-858D-DC00F60CC9C2}"/>
+    <workbookView xWindow="8000" yWindow="4240" windowWidth="27840" windowHeight="16940" xr2:uid="{2EEAB44F-2B2B-C547-858D-DC00F60CC9C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -517,7 +517,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="C2" sqref="C2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -547,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>1.64</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>12</v>
@@ -564,7 +564,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>1.64</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>12</v>
@@ -581,7 +581,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>1.64</v>
+        <v>40</v>
       </c>
       <c r="D4">
         <v>31</v>
@@ -598,7 +598,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>1.64</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>12</v>
@@ -615,7 +615,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>1.64</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>14</v>
@@ -632,7 +632,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>1.64</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>15</v>
@@ -649,7 +649,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>1.64</v>
+        <v>40</v>
       </c>
       <c r="D8">
         <v>16</v>
@@ -666,7 +666,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>1.64</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>13</v>
@@ -683,7 +683,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>1.64</v>
+        <v>40</v>
       </c>
       <c r="D10">
         <v>15</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>1.64</v>
+        <v>40</v>
       </c>
       <c r="D11">
         <v>15</v>
@@ -717,7 +717,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>1.64</v>
+        <v>40</v>
       </c>
       <c r="D12">
         <v>15.5714285714286</v>
@@ -734,7 +734,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>1.64</v>
+        <v>40</v>
       </c>
       <c r="D13">
         <v>15.8928571428571</v>
@@ -751,7 +751,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>1.64</v>
+        <v>40</v>
       </c>
       <c r="D14">
         <v>16.214285714285701</v>
@@ -768,7 +768,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>1.64</v>
+        <v>40</v>
       </c>
       <c r="D15">
         <v>16.535714285714299</v>
@@ -785,7 +785,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>1.64</v>
+        <v>40</v>
       </c>
       <c r="D16">
         <v>16.8571428571429</v>
@@ -802,7 +802,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>1.64</v>
+        <v>40</v>
       </c>
       <c r="D17">
         <v>17.178571428571399</v>
@@ -819,7 +819,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>1.64</v>
+        <v>40</v>
       </c>
       <c r="D18">
         <v>17.5</v>
@@ -836,7 +836,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>1.64</v>
+        <v>40</v>
       </c>
       <c r="D19">
         <v>17.821428571428601</v>
@@ -853,7 +853,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>1.64</v>
+        <v>40</v>
       </c>
       <c r="D20">
         <v>18.1428571428571</v>
@@ -870,7 +870,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>1.64</v>
+        <v>40</v>
       </c>
       <c r="D21">
         <v>18.464285714285701</v>
@@ -887,7 +887,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>1.64</v>
+        <v>40</v>
       </c>
       <c r="D22">
         <v>18.785714285714299</v>
@@ -904,7 +904,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>1.64</v>
+        <v>40</v>
       </c>
       <c r="D23">
         <v>19.1071428571429</v>
@@ -921,7 +921,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>1.64</v>
+        <v>40</v>
       </c>
       <c r="D24">
         <v>19.428571428571399</v>
@@ -938,7 +938,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>1.64</v>
+        <v>40</v>
       </c>
       <c r="D25">
         <v>19.75</v>
@@ -955,7 +955,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>1.64</v>
+        <v>40</v>
       </c>
       <c r="D26">
         <v>20.071428571428601</v>
@@ -972,7 +972,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>1.64</v>
+        <v>40</v>
       </c>
       <c r="D27">
         <v>20.3928571428571</v>
@@ -989,7 +989,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>1.64</v>
+        <v>40</v>
       </c>
       <c r="D28">
         <v>20.714285714285701</v>
@@ -1006,7 +1006,7 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>1.64</v>
+        <v>40</v>
       </c>
       <c r="D29">
         <v>21.035714285714299</v>
@@ -1023,7 +1023,7 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>1.64</v>
+        <v>40</v>
       </c>
       <c r="D30">
         <v>21.3571428571429</v>
@@ -1040,7 +1040,7 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>1.64</v>
+        <v>40</v>
       </c>
       <c r="D31">
         <v>21.678571428571399</v>
@@ -1057,7 +1057,7 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>1.64</v>
+        <v>40</v>
       </c>
       <c r="D32">
         <v>22</v>
@@ -1074,7 +1074,7 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>1.64</v>
+        <v>40</v>
       </c>
       <c r="D33">
         <v>22.321428571428601</v>
@@ -1091,7 +1091,7 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>1.64</v>
+        <v>40</v>
       </c>
       <c r="D34">
         <v>22.6428571428571</v>
@@ -1108,7 +1108,7 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>1.64</v>
+        <v>40</v>
       </c>
       <c r="D35">
         <v>22.964285714285701</v>
@@ -1125,7 +1125,7 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>1.64</v>
+        <v>40</v>
       </c>
       <c r="D36">
         <v>23.285714285714299</v>
